--- a/src/test/resources/files/Inputs.xlsx
+++ b/src/test/resources/files/Inputs.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="21">
   <si>
     <t>ESTADO</t>
   </si>

--- a/src/test/resources/files/Inputs.xlsx
+++ b/src/test/resources/files/Inputs.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="23">
   <si>
     <t>ESTADO</t>
   </si>
@@ -79,6 +79,17 @@
   </si>
   <si>
     <t>firefox</t>
+  </si>
+  <si>
+    <t>org.openqa.selenium.TimeoutException: Expected condition failed: waiting for element to be clickable: By.xpath: //input[@id='user-name'] (tried for 10 second(s) with 500 milliseconds interval)
+Build info: version: '4.3.0', revision: 'a4995e2c09*'
+System info: host: 'AEMATOS', ip: '10.8.48.16', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '11.0.10'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 105.0.5195.102, chrome: {chromedriverVersion: 104.0.5112.79 (3cf3e8c8a07d..., userDataDir: C:\Users\MSIGE6~1\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:62670}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: WINDOWS, proxy: Proxy(), se:cdp: ws://localhost:62670/devtoo..., se:cdpVersion: 105.0.5195.102, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
+Session ID: 8b5d443b10bd03482528573b7f8e2e6e</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
@@ -556,7 +567,8 @@
     <col min="6" max="6" bestFit="true" customWidth="true" style="1" width="10.85546875" collapsed="true"/>
     <col min="7" max="7" bestFit="true" customWidth="true" style="1" width="12.28515625" collapsed="true"/>
     <col min="8" max="8" bestFit="true" customWidth="true" style="1" width="8.46484375" collapsed="true"/>
-    <col min="9" max="16384" style="1" width="11.42578125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="1" width="7.33203125" collapsed="true"/>
+    <col min="10" max="16384" style="1" width="11.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -613,6 +625,9 @@
       <c r="H2" t="s">
         <v>1</v>
       </c>
+      <c r="I2" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
@@ -639,6 +654,9 @@
       <c r="H3" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="I3" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
@@ -664,6 +682,9 @@
       </c>
       <c r="H4" s="1" t="s">
         <v>1</v>
+      </c>
+      <c r="I4" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
